--- a/MessageSent.xlsx
+++ b/MessageSent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelaboohi/PycharmProjects/WhatsAppBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57315FD-CF17-8047-810E-ECA247F3703F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4BB442-7E3F-5949-8510-A3CD1B3F949F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,14 +397,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D158"/>
+      <selection sqref="A1:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
